--- a/importusers.xlsx
+++ b/importusers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duy2k\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\project\product-manager-for-arius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8405A1-397C-406E-A8B9-3F0DCCB4A73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6198653-4999-40F3-A92C-1E7B3640A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD993F88-8BEC-488D-95C3-D9C701CCC40B}"/>
   </bookViews>
@@ -36,36 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>quang</t>
-  </si>
-  <si>
-    <t>duy</t>
-  </si>
-  <si>
     <t>duy9</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>thai binh</t>
+  </si>
+  <si>
+    <t>duyvip</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,40 +469,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>38261</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/importusers.xlsx
+++ b/importusers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\project\product-manager-for-arius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6198653-4999-40F3-A92C-1E7B3640A6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A45FA-A495-4E74-A894-5966FD80C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD993F88-8BEC-488D-95C3-D9C701CCC40B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>duy9</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -63,6 +60,24 @@
   </si>
   <si>
     <t>duyvip</t>
+  </si>
+  <si>
+    <t>duy</t>
+  </si>
+  <si>
+    <t>duy1</t>
+  </si>
+  <si>
+    <t>duy2</t>
+  </si>
+  <si>
+    <t>duy3</t>
+  </si>
+  <si>
+    <t>duy4</t>
+  </si>
+  <si>
+    <t>duy5</t>
   </si>
 </sst>
 </file>
@@ -448,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0D8072-BC1A-4F4F-8A6F-B2E71DA00F1B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,33 +487,118 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>123456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
